--- a/Covad/leonardo.xlsx
+++ b/Covad/leonardo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="278">
   <si>
     <t xml:space="preserve">ANO </t>
   </si>
@@ -853,9 +853,6 @@
   </si>
   <si>
     <t>+493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                 </t>
   </si>
 </sst>
 </file>
@@ -3126,10 +3123,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J247"/>
+  <dimension ref="A1:J242"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="A223" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C242" sqref="C242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9669,46 +9666,6 @@
         <v>43726</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A243" s="1">
-        <v>2019</v>
-      </c>
-      <c r="B243" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C243" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E243" s="9"/>
-      <c r="G243" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A244" s="1">
-        <v>2019</v>
-      </c>
-      <c r="B244" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E244" s="9"/>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A245" s="1">
-        <v>2019</v>
-      </c>
-      <c r="E245" s="9"/>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A246" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A247" s="1">
-        <v>2019</v>
-      </c>
-    </row>
   </sheetData>
   <conditionalFormatting sqref="D75:D90 D57">
     <cfRule type="duplicateValues" dxfId="181" priority="177"/>
